--- a/2024/shuffle-architecute/Teste10/content/results/metrics_3_7.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_3_7.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_0</t>
+          <t>model_3_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9526546654264135</v>
+        <v>0.980643044601659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7500856457745351</v>
+        <v>0.8021221674647422</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9777889233182209</v>
+        <v>0.9737315029907311</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9257681042866132</v>
+        <v>0.9194049780820945</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9617132158035209</v>
+        <v>0.960139557918069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1986982375383377</v>
+        <v>0.08123698830604553</v>
       </c>
       <c r="H2" t="n">
-        <v>1.671178460121155</v>
+        <v>1.323210000991821</v>
       </c>
       <c r="I2" t="n">
-        <v>0.14312544465065</v>
+        <v>0.04738934710621834</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4586507976055145</v>
+        <v>0.1283520609140396</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3008881211280823</v>
+        <v>0.08787066489458084</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_1</t>
+          <t>model_3_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9527705977703137</v>
+        <v>0.9805761841834316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7499185990810933</v>
+        <v>0.8017627476930174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97752157010593</v>
+        <v>0.9747825325753712</v>
       </c>
       <c r="E3" t="n">
-        <v>0.924468743346341</v>
+        <v>0.9213505008089035</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9610928254036641</v>
+        <v>0.9612723569903556</v>
       </c>
       <c r="G3" t="n">
-        <v>0.198211669921875</v>
+        <v>0.08151759952306747</v>
       </c>
       <c r="H3" t="n">
-        <v>1.672295570373535</v>
+        <v>1.325613379478455</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1448482275009155</v>
+        <v>0.04549324885010719</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4666790366172791</v>
+        <v>0.1252537071704865</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3057636320590973</v>
+        <v>0.08537345379590988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_2</t>
+          <t>model_3_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9528740281822851</v>
+        <v>0.9805021936530414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7497490228397352</v>
+        <v>0.8013925499978968</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9772432027677471</v>
+        <v>0.975804047031593</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9231694659216086</v>
+        <v>0.9232981622812072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9604679523432018</v>
+        <v>0.9623938505676519</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1977776288986206</v>
+        <v>0.08182811737060547</v>
       </c>
       <c r="H4" t="n">
-        <v>1.673429489135742</v>
+        <v>1.328088998794556</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1466419994831085</v>
+        <v>0.04365039989352226</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4747067987918854</v>
+        <v>0.1221519485116005</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3106743991374969</v>
+        <v>0.08290117233991623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_3</t>
+          <t>model_3_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9529655212087978</v>
+        <v>0.9804208344963937</v>
       </c>
       <c r="C5" t="n">
-        <v>0.749577229055583</v>
+        <v>0.8010111865432541</v>
       </c>
       <c r="D5" t="n">
-        <v>0.976954326119167</v>
+        <v>0.9767953487207579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9218713691042018</v>
+        <v>0.9252469931651786</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9598392329516308</v>
+        <v>0.9635034104219645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1973936706781387</v>
+        <v>0.08216956257820129</v>
       </c>
       <c r="H5" t="n">
-        <v>1.674578309059143</v>
+        <v>1.330639123916626</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1485034823417664</v>
+        <v>0.04186205193400383</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4827272593975067</v>
+        <v>0.1190483197569847</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3156153559684753</v>
+        <v>0.08045519143342972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_4</t>
+          <t>model_3_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9530456188314761</v>
+        <v>0.9803319221378395</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7494033530277544</v>
+        <v>0.8006182791709555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9766554130410995</v>
+        <v>0.977755972152503</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9205752806164947</v>
+        <v>0.9271954724453675</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9592071915881152</v>
+        <v>0.9646002712798368</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1970575004816055</v>
+        <v>0.08254271745681763</v>
       </c>
       <c r="H6" t="n">
-        <v>1.675740957260132</v>
+        <v>1.333266496658325</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1504296362400055</v>
+        <v>0.04012905061244965</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4907352924346924</v>
+        <v>0.1159452646970749</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3205824494361877</v>
+        <v>0.07803720980882645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_5</t>
+          <t>model_3_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9531148605798061</v>
+        <v>0.9802351779024158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7492276881900399</v>
+        <v>0.8002134926063643</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9763469812724447</v>
+        <v>0.9786851210534048</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9192821999506123</v>
+        <v>0.9291421076551786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9585724283212319</v>
+        <v>0.9656836021877957</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1967669129371643</v>
+        <v>0.0829487219452858</v>
       </c>
       <c r="H7" t="n">
-        <v>1.676915645599365</v>
+        <v>1.335973381996155</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1524171382188797</v>
+        <v>0.03845283389091492</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4987247586250305</v>
+        <v>0.1128451377153397</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3255709409713745</v>
+        <v>0.07564905285835266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_6</t>
+          <t>model_3_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9531736776278459</v>
+        <v>0.9801303629330388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7490504191107381</v>
+        <v>0.7997964443809275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9760295225205388</v>
+        <v>0.9795826298060768</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9179926734008722</v>
+        <v>0.9310850621312878</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9579353613848969</v>
+        <v>0.966752722431636</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1965200453996658</v>
+        <v>0.08338861167430878</v>
       </c>
       <c r="H8" t="n">
-        <v>1.678101062774658</v>
+        <v>1.338762044906616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1544627994298935</v>
+        <v>0.03683369606733322</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5066922307014465</v>
+        <v>0.1097508817911148</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3305774927139282</v>
+        <v>0.07329222559928894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_7</t>
+          <t>model_3_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9532225345441403</v>
+        <v>0.9800172036117888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7488717349380043</v>
+        <v>0.7993667559013542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9757035118217335</v>
+        <v>0.9804478136134392</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9167073194438894</v>
+        <v>0.9330230460982537</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9572964276439835</v>
+        <v>0.9678067130381967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1963150054216385</v>
+        <v>0.0838635191321373</v>
       </c>
       <c r="H9" t="n">
-        <v>1.679295778274536</v>
+        <v>1.341635465621948</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1565635800361633</v>
+        <v>0.03527287021279335</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5146339535713196</v>
+        <v>0.1066645309329033</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3355987668037415</v>
+        <v>0.07096874713897705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_8</t>
+          <t>model_3_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9532618302138731</v>
+        <v>0.9798954819760405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7486918411723328</v>
+        <v>0.7989240652119028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.975369337236506</v>
+        <v>0.9812802105988337</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9154266758198799</v>
+        <v>0.9349536766981751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.956655999690275</v>
+        <v>0.9688446848433742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1961501091718674</v>
+        <v>0.08437435328960419</v>
       </c>
       <c r="H10" t="n">
-        <v>1.680498838424683</v>
+        <v>1.344595670700073</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1587169617414474</v>
+        <v>0.03377119824290276</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5225465297698975</v>
+        <v>0.1035898923873901</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3406317532062531</v>
+        <v>0.06868057698011398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_9</t>
+          <t>model_3_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9532918963148522</v>
+        <v>0.9797648981950881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7485108597271646</v>
+        <v>0.7984679774744934</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9750273857646585</v>
+        <v>0.9820794913343398</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9141510229300315</v>
+        <v>0.9368752786004501</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9560143452348903</v>
+        <v>0.9698658505401681</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1960238963365555</v>
+        <v>0.08492238819599152</v>
       </c>
       <c r="H11" t="n">
-        <v>1.681709051132202</v>
+        <v>1.34764564037323</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1609204560518265</v>
+        <v>0.0323292650282383</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5304283499717712</v>
+        <v>0.1005296260118484</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3456744253635406</v>
+        <v>0.06642946600914001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_10</t>
+          <t>model_3_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9533131189802915</v>
+        <v>0.9796251867782203</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7483289470375547</v>
+        <v>0.7979981361357344</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9746780758684227</v>
+        <v>0.9828453336517118</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9128808273308693</v>
+        <v>0.9387856518882811</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9553718178863818</v>
+        <v>0.9708692475995042</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1959348618984222</v>
+        <v>0.08550872653722763</v>
       </c>
       <c r="H12" t="n">
-        <v>1.682925462722778</v>
+        <v>1.350787401199341</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1631713509559631</v>
+        <v>0.03094765357673168</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5382764339447021</v>
+        <v>0.09748725593090057</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3507238626480103</v>
+        <v>0.06421751528978348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_11</t>
+          <t>model_3_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9533257690640977</v>
+        <v>0.9794760593094365</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7481462360557614</v>
+        <v>0.7975141736770247</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9743217204329497</v>
+        <v>0.9835772325679543</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9116161586233871</v>
+        <v>0.9406824931996765</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9547285765082362</v>
+        <v>0.9718539047936681</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1958817541599274</v>
+        <v>0.08613458275794983</v>
       </c>
       <c r="H13" t="n">
-        <v>1.684147357940674</v>
+        <v>1.354023694992065</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1654676645994186</v>
+        <v>0.02962728217244148</v>
       </c>
       <c r="J13" t="n">
-        <v>0.546090304851532</v>
+        <v>0.094466432929039</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3557789921760559</v>
+        <v>0.06204688176512718</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9533302100960214</v>
+        <v>0.9793172422222857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.747962857847138</v>
+        <v>0.7970156811063585</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9739587848405129</v>
+        <v>0.9842751032577975</v>
       </c>
       <c r="E14" t="n">
-        <v>0.910357419792439</v>
+        <v>0.9425636377605129</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9540849695151823</v>
+        <v>0.9728189359406173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1958631277084351</v>
+        <v>0.08680111169815063</v>
       </c>
       <c r="H14" t="n">
-        <v>1.685373544692993</v>
+        <v>1.357357025146484</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1678063869476318</v>
+        <v>0.02836829982697964</v>
       </c>
       <c r="J14" t="n">
-        <v>0.553867518901825</v>
+        <v>0.09147060662508011</v>
       </c>
       <c r="K14" t="n">
-        <v>0.360836923122406</v>
+        <v>0.05991951003670692</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_13</t>
+          <t>model_3_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9533266971154573</v>
+        <v>0.9791484595842029</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7477789054699802</v>
+        <v>0.7965023790217456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9735895240345269</v>
+        <v>0.9849385930946262</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9091046181485789</v>
+        <v>0.9444265630102504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9534411003504014</v>
+        <v>0.9737633652677588</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1958778500556946</v>
+        <v>0.08750945329666138</v>
       </c>
       <c r="H15" t="n">
-        <v>1.686603665351868</v>
+        <v>1.36078953742981</v>
       </c>
       <c r="I15" t="n">
-        <v>0.170185849070549</v>
+        <v>0.02717133797705173</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5616081357002258</v>
+        <v>0.08850380033254623</v>
       </c>
       <c r="K15" t="n">
-        <v>0.365896999835968</v>
+        <v>0.05783755332231522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_14</t>
+          <t>model_3_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9533155369902038</v>
+        <v>0.9789693689113032</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7475944881657505</v>
+        <v>0.7959739475515804</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9732142665526713</v>
+        <v>0.9855675839877264</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9078581644770972</v>
+        <v>0.9462690019814038</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9527972684875485</v>
+        <v>0.9746862669994657</v>
       </c>
       <c r="G16" t="n">
-        <v>0.195924699306488</v>
+        <v>0.08826106041669846</v>
       </c>
       <c r="H16" t="n">
-        <v>1.687836885452271</v>
+        <v>1.364323139190674</v>
       </c>
       <c r="I16" t="n">
-        <v>0.172603964805603</v>
+        <v>0.02603661455214024</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5693095326423645</v>
+        <v>0.08556961268186569</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3709567785263062</v>
+        <v>0.05580306053161621</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_15</t>
+          <t>model_3_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9532969018872476</v>
+        <v>0.9787797121507174</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7474096582010892</v>
+        <v>0.7954300784056648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9728333124447416</v>
+        <v>0.9861618958326268</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9066177395442</v>
+        <v>0.9480884340505749</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9521534721610547</v>
+        <v>0.9755866348395149</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1960029155015945</v>
+        <v>0.08905700594186783</v>
       </c>
       <c r="H17" t="n">
-        <v>1.689072847366333</v>
+        <v>1.367959976196289</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1750587821006775</v>
+        <v>0.02496445551514626</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5769736766815186</v>
+        <v>0.08267206698656082</v>
       </c>
       <c r="K17" t="n">
-        <v>0.376016229391098</v>
+        <v>0.0538182370364666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_16</t>
+          <t>model_3_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9532711076063968</v>
+        <v>0.9785792456303595</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7472245516326967</v>
+        <v>0.7948704928781924</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9724469400880623</v>
+        <v>0.9867216582064604</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9053839301348749</v>
+        <v>0.9498824056633279</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9515100543496037</v>
+        <v>0.9764636680905114</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1961111426353455</v>
+        <v>0.08989831805229187</v>
       </c>
       <c r="H18" t="n">
-        <v>1.690310597419739</v>
+        <v>1.371701955795288</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1775485277175903</v>
+        <v>0.02395462244749069</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5845968723297119</v>
+        <v>0.07981505990028381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3810727000236511</v>
+        <v>0.05188484862446785</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_17</t>
+          <t>model_3_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9532383945607416</v>
+        <v>0.9783675967369299</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7470392226373721</v>
+        <v>0.7942950147171868</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9720554557245635</v>
+        <v>0.987246647511236</v>
       </c>
       <c r="E19" t="n">
-        <v>0.904156532137708</v>
+        <v>0.9516483990197401</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9508670612838845</v>
+        <v>0.9773163763550561</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1962484419345856</v>
+        <v>0.09078656882047653</v>
       </c>
       <c r="H19" t="n">
-        <v>1.691549897193909</v>
+        <v>1.375550270080566</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1800712049007416</v>
+        <v>0.02300752326846123</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5921805500984192</v>
+        <v>0.0770026221871376</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3861258625984192</v>
+        <v>0.05000508949160576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_18</t>
+          <t>model_3_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9531989324429355</v>
+        <v>0.9781445260243635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7468537068439921</v>
+        <v>0.7937034444440281</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9716591362885449</v>
+        <v>0.9877370012613317</v>
       </c>
       <c r="E20" t="n">
-        <v>0.902935544516409</v>
+        <v>0.9533841614707272</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9502246055251736</v>
+        <v>0.9781439979979468</v>
       </c>
       <c r="G20" t="n">
-        <v>0.196414053440094</v>
+        <v>0.0917227566242218</v>
       </c>
       <c r="H20" t="n">
-        <v>1.692790508270264</v>
+        <v>1.37950599193573</v>
       </c>
       <c r="I20" t="n">
-        <v>0.182625025510788</v>
+        <v>0.02212290652096272</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5997245311737061</v>
+        <v>0.07423832267522812</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3911747932434082</v>
+        <v>0.04818063601851463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_19</t>
+          <t>model_3_7_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9531530443864661</v>
+        <v>0.9779098170219123</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7466681137010609</v>
+        <v>0.7930957278725022</v>
       </c>
       <c r="D21" t="n">
-        <v>0.97125824988453</v>
+        <v>0.9881928994966881</v>
       </c>
       <c r="E21" t="n">
-        <v>0.901721347777764</v>
+        <v>0.9550875308052241</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9495829469481989</v>
+        <v>0.9789458392229806</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1966066509485245</v>
+        <v>0.09270776808261871</v>
       </c>
       <c r="H21" t="n">
-        <v>1.694031476974487</v>
+        <v>1.383569836616516</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1852082908153534</v>
+        <v>0.02130044810473919</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6072266101837158</v>
+        <v>0.07152561098337173</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3962174654006958</v>
+        <v>0.04641301184892654</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_20</t>
+          <t>model_3_7_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9531007944787816</v>
+        <v>0.9776631072832686</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7464824261891871</v>
+        <v>0.792471781382467</v>
       </c>
       <c r="D22" t="n">
-        <v>0.970852886711731</v>
+        <v>0.9886144254615792</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9005136547752803</v>
+        <v>0.9567562259298018</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9489420131766655</v>
+        <v>0.9797210447381078</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1968259364366531</v>
+        <v>0.09374315291643143</v>
       </c>
       <c r="H22" t="n">
-        <v>1.695273160934448</v>
+        <v>1.387742161750793</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1878204047679901</v>
+        <v>0.02053999900817871</v>
       </c>
       <c r="J22" t="n">
-        <v>0.614688515663147</v>
+        <v>0.06886811554431915</v>
       </c>
       <c r="K22" t="n">
-        <v>0.401254415512085</v>
+        <v>0.04470410197973251</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_21</t>
+          <t>model_3_7_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.953042563058177</v>
+        <v>0.9774042180025443</v>
       </c>
       <c r="C23" t="n">
-        <v>0.746296735878524</v>
+        <v>0.7918317044500516</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9704435524430739</v>
+        <v>0.9890019705331522</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8993127990623935</v>
+        <v>0.9583884032525144</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9483021346951015</v>
+        <v>0.9804692090243982</v>
       </c>
       <c r="G23" t="n">
-        <v>0.197070300579071</v>
+        <v>0.09482966363430023</v>
       </c>
       <c r="H23" t="n">
-        <v>1.696514964103699</v>
+        <v>1.392022371292114</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1904581040143967</v>
+        <v>0.01984085328876972</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6221081018447876</v>
+        <v>0.06626878678798676</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4062830805778503</v>
+        <v>0.04305480420589447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_22</t>
+          <t>model_3_7_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.952978440259173</v>
+        <v>0.9771329406557797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7461110576108518</v>
+        <v>0.7911756159081953</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9700303231817445</v>
+        <v>0.9893556743552898</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8981186478055884</v>
+        <v>0.9599825624752482</v>
       </c>
       <c r="F24" t="n">
-        <v>0.947663296649396</v>
+        <v>0.9811897621336974</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1973394006490707</v>
+        <v>0.09596814960241318</v>
       </c>
       <c r="H24" t="n">
-        <v>1.69775652885437</v>
+        <v>1.396409630775452</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1931209117174149</v>
+        <v>0.01920275948941708</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6294862627983093</v>
+        <v>0.06373000144958496</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4113036096096039</v>
+        <v>0.04146637767553329</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_23</t>
+          <t>model_3_7_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9529086608593715</v>
+        <v>0.976849007313582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7459254566885669</v>
+        <v>0.7905037635377914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9696134100745646</v>
+        <v>0.9896760093876433</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8969313696751666</v>
+        <v>0.9615376655928739</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9470256486990691</v>
+        <v>0.9818825508305461</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1976322680711746</v>
+        <v>0.09715975821018219</v>
       </c>
       <c r="H25" t="n">
-        <v>1.698997616767883</v>
+        <v>1.400902390480042</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1958074420690536</v>
+        <v>0.01862486451864243</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6368220448493958</v>
+        <v>0.06125341355800629</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4163147509098053</v>
+        <v>0.03993915393948555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_7_24</t>
+          <t>model_3_7_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9528334302994379</v>
+        <v>0.9765522748040332</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7457399228650786</v>
+        <v>0.7898164743163296</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9691931620760948</v>
+        <v>0.9899632540952146</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8957508900582603</v>
+        <v>0.9630525480247281</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9463893078327443</v>
+        <v>0.982547284823089</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1979479789733887</v>
+        <v>0.09840507805347443</v>
       </c>
       <c r="H26" t="n">
-        <v>1.700238347053528</v>
+        <v>1.405498266220093</v>
       </c>
       <c r="I26" t="n">
-        <v>0.198515459895134</v>
+        <v>0.01810666173696518</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6441158056259155</v>
+        <v>0.05884087458252907</v>
       </c>
       <c r="K26" t="n">
-        <v>0.421315610408783</v>
+        <v>0.03847377747297287</v>
       </c>
     </row>
   </sheetData>
